--- a/8 - Gravitation/8-04 - Universal Gravitation.xlsx
+++ b/8 - Gravitation/8-04 - Universal Gravitation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Public\K12-Physics-S1_SY2223\8 - Gravitation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F5FD22-1066-42ED-96A9-25F2747C9983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B0D939-145B-47EA-99CB-A8BB136F5E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="17340" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keplers 3rd Law" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
   <si>
     <t>Objective:</t>
   </si>
@@ -231,6 +229,18 @@
   </si>
   <si>
     <t>m/s</t>
+  </si>
+  <si>
+    <t>Equal Mass of person 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>m12</t>
+  </si>
+  <si>
+    <t>m = SQRT(Fg/G*r^2)</t>
+  </si>
+  <si>
+    <t>Gravitational Force</t>
   </si>
 </sst>
 </file>
@@ -695,7 +705,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999C7FA8-D952-402F-9B49-02F494CBF05A}">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -782,7 +792,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="2">
-        <f>D7*D4*D5/D6</f>
+        <f>D7*D4*D5/POWER(D6,2)</f>
         <v>4.2687999999999997E-7</v>
       </c>
       <c r="E9" t="s">
@@ -790,6 +800,58 @@
       </c>
       <c r="G9" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <f>SQRT(D9/D7*POWER(D6,2))</f>
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1">
+        <f>3*POWER(10, -7)</f>
+        <v>2.9999999999999999E-7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <f>SQRT(D12/D7*POWER(D6,2))</f>
+        <v>67.065275101484389</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
